--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Ausgabe des Themenkatalogs, Gespräch mit Dobler</t>
   </si>
@@ -24,9 +24,6 @@
     <t>Benachrichtigung über Genehmigung des Themas</t>
   </si>
   <si>
-    <t>Anlegen SVN und Verzeichnisstruktur</t>
-  </si>
-  <si>
     <t>Latex einrichten und Bachelorarbeitsvorlage von Burger downloaden</t>
   </si>
   <si>
@@ -34,6 +31,12 @@
   </si>
   <si>
     <t>Aktivität</t>
+  </si>
+  <si>
+    <t>Anlegen SVN und Verzeichnisstruktur, Create project sort, Implement test for own quicksort, c qsort and c++ sort</t>
+  </si>
+  <si>
+    <t>Created OpenCL classes, Implemented Bealto ParallelSelectionSort</t>
   </si>
 </sst>
 </file>
@@ -41,7 +44,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -89,12 +92,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,7 +403,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,10 +414,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -437,7 +441,7 @@
         <v>41112</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -445,7 +449,15 @@
         <v>41113</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>41119</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Ausgabe des Themenkatalogs, Gespräch mit Dobler</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Created OpenCL classes, Implemented Bealto ParallelSelectionSort</t>
+  </si>
+  <si>
+    <t>Implemented Bealto ParallelSelectionSortLocal and ParallelSelectionSortBlocks</t>
   </si>
 </sst>
 </file>
@@ -403,7 +406,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,6 +463,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>41121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Ausgabe des Themenkatalogs, Gespräch mit Dobler</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Implemented Bealto ParallelSelectionSortLocal and ParallelSelectionSortBlocks</t>
+  </si>
+  <si>
+    <t>Implemented Bealto ParallelBitonicSortLocal</t>
   </si>
 </sst>
 </file>
@@ -104,7 +107,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -117,9 +120,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -157,7 +160,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -229,7 +232,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -406,10 +409,10 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="172.85546875" customWidth="1"/>
@@ -471,6 +474,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>41122</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
@@ -543,7 +554,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -555,7 +566,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Ausgabe des Themenkatalogs, Gespräch mit Dobler</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Implemented Bealto ParallelBitonicSortLocal</t>
+  </si>
+  <si>
+    <t>Implemented Bealto ParallelBitonicSortA, ParallelBitonicSortB2 (first algorithm running faster than CPU Quicksort)</t>
   </si>
 </sst>
 </file>
@@ -408,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,6 +485,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>41123</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -45,7 +45,7 @@
     <t>Implemented Bealto ParallelBitonicSortLocal</t>
   </si>
   <si>
-    <t>Implemented Bealto ParallelBitonicSortA, ParallelBitonicSortB2 (first algorithm running faster than CPU Quicksort)</t>
+    <t>Implemented Bealto ParallelBitonicSortA, ParallelBitonicSortB2 (first algorithm running faster than CPU Quicksort in Debug mode), ParallelBitonicSortB4 (first algorithm running faster than CPU Quicksort in Release mode)</t>
   </si>
 </sst>
 </file>
@@ -412,13 +412,13 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B18" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="172.85546875" customWidth="1"/>
+    <col min="2" max="2" width="199.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Ausgabe des Themenkatalogs, Gespräch mit Dobler</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Implemented Bealto ParallelBitonicSortA, ParallelBitonicSortB2 (first algorithm running faster than CPU Quicksort in Debug mode), ParallelBitonicSortB4 (first algorithm running faster than CPU Quicksort in Release mode)</t>
+  </si>
+  <si>
+    <t>Implemented ParallelBitonicSortB8, ParallelBitonicSortB16</t>
   </si>
 </sst>
 </file>
@@ -101,13 +104,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -411,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B17:B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +464,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="1">
         <v>41119</v>
       </c>
       <c r="B6" t="s">
@@ -470,7 +472,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="1">
         <v>41121</v>
       </c>
       <c r="B7" t="s">
@@ -478,7 +480,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="1">
         <v>41122</v>
       </c>
       <c r="B8" t="s">
@@ -486,7 +488,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="1">
         <v>41123</v>
       </c>
       <c r="B9" t="s">
@@ -494,7 +496,12 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>41124</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Ausgabe des Themenkatalogs, Gespräch mit Dobler</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Implemented ParallelBitonicSortB8, ParallelBitonicSortB16</t>
+  </si>
+  <si>
+    <t>Implemented Bealto ParallelBitonicSortC</t>
   </si>
 </sst>
 </file>
@@ -112,7 +115,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -125,9 +128,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -165,7 +168,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -237,7 +240,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -414,10 +417,10 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B12:B13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="199.85546875" bestFit="1" customWidth="1"/>
@@ -504,7 +507,12 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>41125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -572,7 +580,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -584,7 +592,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -51,7 +51,7 @@
     <t>Implemented ParallelBitonicSortB8, ParallelBitonicSortB16</t>
   </si>
   <si>
-    <t>Implemented Bealto ParallelBitonicSortC</t>
+    <t>Implemented Bealto ParallelBitonicSortC, ParallelMergeSort</t>
   </si>
 </sst>
 </file>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Ausgabe des Themenkatalogs, Gespräch mit Dobler</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Implemented Bealto ParallelBitonicSortC, ParallelMergeSort</t>
+  </si>
+  <si>
+    <t>Implemented LibCL RadixSort, Added some keywords to lexer file, Refactored RUN macros in main</t>
   </si>
 </sst>
 </file>
@@ -417,7 +420,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,7 +518,12 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>41126</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Ausgabe des Themenkatalogs, Gespräch mit Dobler</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Implemented LibCL RadixSort, Added some keywords to lexer file, Refactored RUN macros in main</t>
+  </si>
+  <si>
+    <t>Tried to get OpenSSL custom OpenCL engine running</t>
   </si>
 </sst>
 </file>
@@ -420,7 +423,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +529,12 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>41129</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Ausgabe des Themenkatalogs, Gespräch mit Dobler</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Tried to get OpenSSL custom OpenCL engine running</t>
+  </si>
+  <si>
+    <t>Implemented AMD BitonicSort</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +540,12 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>41133</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -60,7 +60,7 @@
     <t>Tried to get OpenSSL custom OpenCL engine running</t>
   </si>
   <si>
-    <t>Implemented AMD BitonicSort</t>
+    <t>Implemented AMD BitonicSort and RadixSort</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -60,7 +60,7 @@
     <t>Tried to get OpenSSL custom OpenCL engine running</t>
   </si>
   <si>
-    <t>Implemented AMD BitonicSort and RadixSort</t>
+    <t>Implemented AMD BitonicSort and RadixSort, Got an CPU AES Implementation running</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Ausgabe des Themenkatalogs, Gespräch mit Dobler</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Implemented AMD BitonicSort and RadixSort, Got an CPU AES Implementation running</t>
+  </si>
+  <si>
+    <t>Implemented clpp radix sort (not working), Implemented CPU Scan</t>
   </si>
 </sst>
 </file>
@@ -426,7 +429,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +551,12 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>42228</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Ausgabe des Themenkatalogs, Gespräch mit Dobler</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Implemented clpp radix sort (not working), Implemented CPU Scan</t>
+  </si>
+  <si>
+    <t>Refactoring, Added Runner class</t>
   </si>
 </sst>
 </file>
@@ -429,7 +432,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +562,12 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>41155</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Ausgabe des Themenkatalogs, Gespräch mit Dobler</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Refactoring, Added Runner class</t>
+  </si>
+  <si>
+    <t>Added NaiveScan from Gpu gems 3</t>
+  </si>
+  <si>
+    <t>All Sorts working now, Adapted Scan project to new Runner architecture, deleted crypt project</t>
   </si>
 </sst>
 </file>
@@ -432,7 +438,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,43 +575,53 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>41157</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>41158</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
   </sheetData>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -69,10 +69,10 @@
     <t>Refactoring, Added Runner class</t>
   </si>
   <si>
-    <t>Added NaiveScan from Gpu gems 3</t>
-  </si>
-  <si>
     <t>All Sorts working now, Adapted Scan project to new Runner architecture, deleted crypt project</t>
+  </si>
+  <si>
+    <t>Added NaiveScan and WorkEfficientScan from Gpu gems 3</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +580,7 @@
         <v>41157</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
         <v>41158</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Ausgabe des Themenkatalogs, Gespräch mit Dobler</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>Added NaiveScan and WorkEfficientScan from Gpu gems 3</t>
+  </si>
+  <si>
+    <t>Added LocalScan from Gpu gems 3</t>
+  </si>
+  <si>
+    <t>Further working on LocalScan</t>
+  </si>
+  <si>
+    <t>LocalScan technically working now, allocation problems with sizes &gt; 2MiB</t>
   </si>
 </sst>
 </file>
@@ -438,7 +447,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,13 +601,28 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1">
+        <v>41162</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1">
+        <v>41163</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1">
+        <v>41164</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Ausgabe des Themenkatalogs, Gespräch mit Dobler</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>LocalScan technically working now, allocation problems with sizes &gt; 2MiB</t>
+  </si>
+  <si>
+    <t>Fixed an issue in the OpenCL device information query methods</t>
   </si>
 </sst>
 </file>
@@ -447,7 +450,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +628,12 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1">
+        <v>41166</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -84,7 +84,7 @@
     <t>LocalScan technically working now, allocation problems with sizes &gt; 2MiB</t>
   </si>
   <si>
-    <t>Fixed an issue in the OpenCL device information query methods</t>
+    <t>Fixed an issue in the OpenCL device information query methods, LocalScan works now up to 64M elements (256MiB)</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Ausgabe des Themenkatalogs, Gespräch mit Dobler</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Fixed an issue in the OpenCL device information query methods, LocalScan works now up to 64M elements (256MiB)</t>
+  </si>
+  <si>
+    <t>LocalScan with optimized memory access works now. Is somehow still slower =/</t>
   </si>
 </sst>
 </file>
@@ -450,7 +453,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,7 +639,12 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1">
+        <v>41169</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Ausgabe des Themenkatalogs, Gespräch mit Dobler</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>LocalScan with optimized memory access works now. Is somehow still slower =/</t>
+  </si>
+  <si>
+    <t>Integrated Apple's Scan implementation. Faster on than LocalScan on small arrays, otherwise way slower.</t>
   </si>
 </sst>
 </file>
@@ -647,7 +650,12 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1">
+        <v>41170</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Ausgabe des Themenkatalogs, Gespräch mit Dobler</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Integrated Apple's Scan implementation. Faster on than LocalScan on small arrays, otherwise way slower.</t>
+  </si>
+  <si>
+    <t>Adapted sort project to new Runner architecture, added Verifier classes</t>
   </si>
 </sst>
 </file>
@@ -456,7 +459,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +661,12 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1">
+        <v>41171</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Ausgabe des Themenkatalogs, Gespräch mit Dobler</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>Adapted sort project to new Runner architecture, added Verifier classes</t>
+  </si>
+  <si>
+    <t>Refactored Runner architecture, Added CPU matrix multiplication</t>
+  </si>
+  <si>
+    <t>Added enqueueWrites for all buffers, significant performance boost</t>
   </si>
 </sst>
 </file>
@@ -459,7 +465,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,10 +675,20 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1">
+        <v>41175</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1">
+        <v>41176</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Ausgabe des Themenkatalogs, Gespräch mit Dobler</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Added enqueueWrites for all buffers, significant performance boost</t>
+  </si>
+  <si>
+    <t>Refactoring Runner</t>
   </si>
 </sst>
 </file>
@@ -465,7 +468,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,7 +694,12 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1">
+        <v>41157</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Ausgabe des Themenkatalogs, Gespräch mit Dobler</t>
   </si>
@@ -102,7 +102,10 @@
     <t>Added enqueueWrites for all buffers, significant performance boost</t>
   </si>
   <si>
-    <t>Refactoring Runner</t>
+    <t>Refactored Runner</t>
+  </si>
+  <si>
+    <t>Refactored Runner, Added GPU matrix multiplication, 35 times faster than CPU on a 1000x1000 element matrix</t>
   </si>
 </sst>
 </file>
@@ -468,7 +471,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,7 +705,12 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>41178</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Ausgabe des Themenkatalogs, Gespräch mit Dobler</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Refactored Runner, Added GPU matrix multiplication, 35 times faster than CPU on a 1000x1000 element matrix</t>
+  </si>
+  <si>
+    <t>Cleaned up Runner (removed duplicated code), added stats writing to csv, added device info writing to csv</t>
   </si>
 </sst>
 </file>
@@ -161,12 +164,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,6 +714,14 @@
       </c>
       <c r="B29" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>41179</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Ausgabe des Themenkatalogs, Gespräch mit Dobler</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Cleaned up Runner (removed duplicated code), added stats writing to csv, added device info writing to csv</t>
+  </si>
+  <si>
+    <t>Moved Buffer deletions into download method to avoid OUT_OF_RESOURCES</t>
   </si>
 </sst>
 </file>
@@ -164,13 +167,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,12 +719,44 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="1">
         <v>41179</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>41183</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Ausgabe des Themenkatalogs, Gespräch mit Dobler</t>
   </si>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t>Moved Buffer deletions into download method to avoid OUT_OF_RESOURCES</t>
+  </si>
+  <si>
+    <t>Added results for sort project</t>
+  </si>
+  <si>
+    <t>Deeper look into RadixSort. Began implementing an own one.</t>
+  </si>
+  <si>
+    <t>Added results from benachmark at lutsch's PC</t>
+  </si>
+  <si>
+    <t>Small cleanup in Runner. Added some checks for uninitialized contexts. Added structural overview as given by Jazak</t>
   </si>
 </sst>
 </file>
@@ -477,7 +489,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,27 +747,47 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>41185</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>41186</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>41188</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>41190</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
   </sheetData>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Ausgabe des Themenkatalogs, Gespräch mit Dobler</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>Small cleanup in Runner. Added some checks for uninitialized contexts. Added structural overview as given by Jazak</t>
+  </si>
+  <si>
+    <t>Got AMD RadixSort modification (integrated LocalScan) working</t>
+  </si>
+  <si>
+    <t>Added serial gpu scan</t>
   </si>
 </sst>
 </file>
@@ -488,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,10 +785,20 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1">
+        <v>41192</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1">
+        <v>41193</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Ausgabe des Themenkatalogs, Gespräch mit Dobler</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Added serial gpu scan</t>
+  </si>
+  <si>
+    <t>Meeting with Dobler. Reviewed results and set next steps. Further research of BLAS routines (matrix multiplication) shoud be focused.</t>
   </si>
 </sst>
 </file>
@@ -494,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,7 +804,12 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1">
+        <v>41193</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Ausgabe des Themenkatalogs, Gespräch mit Dobler</t>
   </si>
@@ -129,10 +129,19 @@
     <t>Got AMD RadixSort modification (integrated LocalScan) working</t>
   </si>
   <si>
-    <t>Added serial gpu scan</t>
-  </si>
-  <si>
-    <t>Meeting with Dobler. Reviewed results and set next steps. Further research of BLAS routines (matrix multiplication) shoud be focused.</t>
+    <t>Added serial gpu scan, Meeting with Dobler. Reviewed results and set next steps. Further research of BLAS routines (matrix multiplication) shoud be focused.</t>
+  </si>
+  <si>
+    <t>Added BLAS and CBLAS library. Added matrix multiplication using the CBLAS interface. Insane performance.</t>
+  </si>
+  <si>
+    <t>Added clAmdBlas library and corresponding benchmark. Performance sucks.</t>
+  </si>
+  <si>
+    <t>Working on gpu matrix multiplication using OpenCL images</t>
+  </si>
+  <si>
+    <t>Got gpu matrix multiplication using OpenCL images working. Fastest algorithm so far.</t>
   </si>
 </sst>
 </file>
@@ -495,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,14 +814,53 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41193</v>
+        <v>41194</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1">
+        <v>41197</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>41198</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>41199</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Datum</t>
   </si>
@@ -161,46 +160,33 @@
   </si>
   <si>
     <t>Added Linux support to matrix project</t>
+  </si>
+  <si>
+    <t>Added AMD tile based matrix multiplication, insane performance boost!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="YYYY\-MM\-DD;@" numFmtId="165"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -212,82 +198,347 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B47" activeCellId="0" pane="topLeft" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.3333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="200.682352941176"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.18039215686274"/>
+    <col min="1" max="1" width="12.28515625"/>
+    <col min="2" max="2" width="200.7109375"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1" s="3">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -295,431 +546,410 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>41074</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="4" t="n">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>41095</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="4" t="n">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>41112</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="4" t="n">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>41113</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="4" t="n">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>41119</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="4" t="n">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>41121</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="A8" s="4" t="n">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>41122</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="4" t="n">
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>41123</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
-      <c r="A10" s="4" t="n">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>41124</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11">
-      <c r="A11" s="4" t="n">
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>41125</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12">
-      <c r="A12" s="4" t="n">
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>41126</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13">
-      <c r="A13" s="4" t="n">
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>41129</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14">
-      <c r="A14" s="4" t="n">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>41133</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
-      <c r="A15" s="4" t="n">
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>42228</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
-      <c r="A16" s="4" t="n">
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>41155</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="17">
-      <c r="A17" s="4" t="n">
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>41157</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="18">
-      <c r="A18" s="4" t="n">
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>41158</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="19">
-      <c r="A19" s="4" t="n">
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>41162</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="20">
-      <c r="A20" s="4" t="n">
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>41163</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="21">
-      <c r="A21" s="4" t="n">
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>41164</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="22">
-      <c r="A22" s="4" t="n">
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>41166</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="23">
-      <c r="A23" s="4" t="n">
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>41169</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="24">
-      <c r="A24" s="4" t="n">
+    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>41170</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="25">
-      <c r="A25" s="4" t="n">
+    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>41171</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="26">
-      <c r="A26" s="4" t="n">
+    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>41175</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="27">
-      <c r="A27" s="4" t="n">
+    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>41176</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="28">
-      <c r="A28" s="4" t="n">
+    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>41157</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="29">
-      <c r="A29" s="4" t="n">
+    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>41178</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="30">
-      <c r="A30" s="4" t="n">
+    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <v>41179</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="31">
-      <c r="A31" s="4" t="n">
+    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>41183</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="32">
-      <c r="A32" s="4" t="n">
+    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>41185</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="33">
-      <c r="A33" s="4" t="n">
+    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>41186</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="34">
-      <c r="A34" s="4" t="n">
+    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>41188</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="35">
-      <c r="A35" s="4" t="n">
+    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
         <v>41190</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="36">
-      <c r="A36" s="4" t="n">
+    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
         <v>41192</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="37">
-      <c r="A37" s="4" t="n">
+    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>41193</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="38">
-      <c r="A38" s="4" t="n">
+    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
         <v>41194</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="39">
-      <c r="A39" s="4" t="n">
+    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
         <v>41197</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="40">
-      <c r="A40" s="4" t="n">
+    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
         <v>41198</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="41">
-      <c r="A41" s="4" t="n">
+    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
         <v>41199</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="42">
-      <c r="A42" s="4" t="n">
+    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
         <v>41200</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="43">
-      <c r="A43" s="4" t="n">
+    <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
         <v>41204</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="44">
-      <c r="A44" s="4" t="n">
+    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
         <v>41206</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="45">
-      <c r="A45" s="4" t="n">
+    <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
         <v>41210</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="46">
-      <c r="A46" s="4" t="n">
+    <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
         <v>41213</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="47">
-      <c r="A47" s="4" t="n">
+    <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
         <v>41214</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" t="s">
         <v>47</v>
       </c>
     </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>41215</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.18039215686274"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.18039215686274"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Datum</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>Added AMD tile based matrix multiplication, insane performance boost!</t>
+  </si>
+  <si>
+    <t>Finished linux x64 port</t>
+  </si>
+  <si>
+    <t>Refactoring file names, ported to Windows x64, added CB projects for libraries, configured dependencies, added AMD tile based matrix multiplication using local memory</t>
   </si>
 </sst>
 </file>
@@ -218,13 +224,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,12 +920,34 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+      <c r="A48" s="4">
         <v>41215</v>
       </c>
       <c r="B48" t="s">
         <v>48</v>
       </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>41217</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>41222</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Datum</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>Refactoring file names, ported to Windows x64, added CB projects for libraries, configured dependencies, added AMD tile based matrix multiplication using local memory</t>
+  </si>
+  <si>
+    <t>Runner now runs multiple iterations of every algorithm and computes mean and standard deviation</t>
   </si>
 </sst>
 </file>
@@ -531,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,11 +946,22 @@
         <v>49</v>
       </c>
     </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>41223</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Datum</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>Runner now runs multiple iterations of every algorithm and computes mean and standard deviation</t>
+  </si>
+  <si>
+    <t>Added built in blocked mesh transform</t>
   </si>
 </sst>
 </file>
@@ -537,7 +540,7 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,7 +958,12 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
+      <c r="A52" s="4">
+        <v>41224</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Datum</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>Added built in blocked mesh transform</t>
+  </si>
+  <si>
+    <t>Added table of content</t>
   </si>
 </sst>
 </file>
@@ -540,7 +543,7 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,7 +969,12 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
+      <c r="A53" s="4">
+        <v>41250</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Datum</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Added table of content</t>
+  </si>
+  <si>
+    <t>Finished table of content</t>
   </si>
 </sst>
 </file>
@@ -970,14 +973,19 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>41250</v>
+        <v>41260</v>
       </c>
       <c r="B53" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
+      <c r="A54" s="4">
+        <v>41261</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Datum</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>Finished table of content</t>
+  </si>
+  <si>
+    <t>Added NVIDIA Scan</t>
   </si>
 </sst>
 </file>
@@ -543,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,6 +989,26 @@
       <c r="B54" t="s">
         <v>54</v>
       </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>41262</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Datum</t>
   </si>
@@ -183,7 +183,10 @@
     <t>Finished table of content</t>
   </si>
   <si>
-    <t>Added NVIDIA Scan</t>
+    <t>Added NVIDIA bitonic sort and matrix multiplication, fixed AMD tile local matrix multiplication and NVIDIA radix sort</t>
+  </si>
+  <si>
+    <t>Added NVIDIA Scan and RadixSort</t>
   </si>
 </sst>
 </file>
@@ -548,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,11 +998,16 @@
         <v>41262</v>
       </c>
       <c r="B55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>41282</v>
+      </c>
+      <c r="B56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Datum</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>Added NVIDIA Scan and RadixSort</t>
+  </si>
+  <si>
+    <t>Some bugfixes, added 4 results of benchmarks, added second presentation</t>
   </si>
 </sst>
 </file>
@@ -552,7 +555,7 @@
   <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,7 +1013,12 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
+      <c r="A57" s="4">
+        <v>40917</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Datum</t>
   </si>
@@ -190,6 +190,21 @@
   </si>
   <si>
     <t>Some bugfixes, added 4 results of benchmarks, added second presentation</t>
+  </si>
+  <si>
+    <t>Reorganized latex files, added overview of each chapter</t>
+  </si>
+  <si>
+    <t>Added declaration and some ignores</t>
+  </si>
+  <si>
+    <t>added bibliography, wrote subchapter Motivation</t>
+  </si>
+  <si>
+    <t>wrote subchapter Goal</t>
+  </si>
+  <si>
+    <t>wrote subchapter History and Chapter overview, finished first chapter Introduction</t>
   </si>
 </sst>
 </file>
@@ -552,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,17 +1029,96 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
-        <v>40917</v>
+        <v>41283</v>
       </c>
       <c r="B57" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
+      <c r="A58" s="4">
+        <v>41296</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
+      <c r="A59" s="4">
+        <v>41356</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>41357</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>41358</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>41368</v>
+      </c>
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Datum</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>wrote subchapter History and Chapter overview, finished first chapter Introduction</t>
+  </si>
+  <si>
+    <t>began with OpenCL chapter</t>
   </si>
 </sst>
 </file>
@@ -570,7 +573,7 @@
   <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,7 +1079,12 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
+      <c r="A63" s="4">
+        <v>41371</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Datum</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>began with OpenCL chapter</t>
+  </si>
+  <si>
+    <t>wrote subchapter What is OpenCL? and Components</t>
   </si>
 </sst>
 </file>
@@ -572,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,7 +1090,12 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
+      <c r="A64" s="4">
+        <v>41372</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bgruber\Desktop\bakk\documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Datum</t>
   </si>
@@ -211,6 +216,9 @@
   </si>
   <si>
     <t>wrote subchapter What is OpenCL? and Components</t>
+  </si>
+  <si>
+    <t>Updated device informations queried in StatsWriter to OpenCL 1.2 (not tested)</t>
   </si>
 </sst>
 </file>
@@ -274,7 +282,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -282,14 +290,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -327,9 +338,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,7 +375,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -399,7 +410,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -576,10 +587,10 @@
   <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625"/>
     <col min="2" max="2" width="200.7109375"/>
@@ -1097,43 +1108,48 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>41373</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
     </row>
   </sheetData>
@@ -1148,7 +1164,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1161,7 +1177,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bgruber\Desktop\bakk\documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="450" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Datum</t>
   </si>
@@ -219,6 +214,9 @@
   </si>
   <si>
     <t>Updated device informations queried in StatsWriter to OpenCL 1.2 (not tested)</t>
+  </si>
+  <si>
+    <t>Added images of Ivy Bridge and Kepler architecture. Write chapter about CPU.</t>
   </si>
 </sst>
 </file>
@@ -282,7 +280,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -298,9 +296,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -338,9 +336,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,7 +373,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -410,7 +408,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -587,10 +585,10 @@
   <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625"/>
     <col min="2" max="2" width="200.7109375"/>
@@ -1117,7 +1115,12 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
+      <c r="A66" s="4">
+        <v>41377</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
@@ -1164,7 +1167,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1177,7 +1180,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Datum</t>
   </si>
@@ -216,7 +216,10 @@
     <t>Updated device informations queried in StatsWriter to OpenCL 1.2 (not tested)</t>
   </si>
   <si>
-    <t>Added images of Ivy Bridge and Kepler architecture. Write chapter about CPU.</t>
+    <t>Added images of Ivy Bridge and Kepler architecture. Write chapter about CPU hardware architecture</t>
+  </si>
+  <si>
+    <t>Finished chapter about the GPU hardware architecture. Added an additional paper about GPU optimizations</t>
   </si>
 </sst>
 </file>
@@ -585,7 +588,7 @@
   <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,7 +1126,12 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
+      <c r="A67" s="4">
+        <v>41378</v>
+      </c>
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Datum</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>Finished chapter about the GPU hardware architecture. Added an additional paper about GPU optimizations</t>
+  </si>
+  <si>
+    <t>Wrote API overview</t>
   </si>
 </sst>
 </file>
@@ -588,7 +591,7 @@
   <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,7 +1137,12 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
+      <c r="A68" s="4">
+        <v>41380</v>
+      </c>
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Datum</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>Wrote API overview</t>
+  </si>
+  <si>
+    <t>Wrote chapter platform model and first part of chapter execution model</t>
   </si>
 </sst>
 </file>
@@ -591,7 +594,7 @@
   <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,7 +1148,12 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
+      <c r="A69" s="4">
+        <v>41382</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Datum</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>Wrote chapter platform model and first part of chapter execution model</t>
+  </si>
+  <si>
+    <t>Finished execution model chapter, wrote memory chapter, added sample file, FINISHED OPENCL chapter</t>
   </si>
 </sst>
 </file>
@@ -594,7 +597,7 @@
   <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,7 +1159,12 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
+      <c r="A70" s="4">
+        <v>41384</v>
+      </c>
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Datum</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>Finished execution model chapter, wrote memory chapter, added sample file, FINISHED OPENCL chapter</t>
+  </si>
+  <si>
+    <t>proof-read introduction and OpenCL chapter</t>
   </si>
 </sst>
 </file>
@@ -597,7 +600,7 @@
   <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,7 +1170,12 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
+      <c r="A71" s="4">
+        <v>41385</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Datum</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>proof-read introduction and OpenCL chapter</t>
+  </si>
+  <si>
+    <t>Applied Dobler's feedback</t>
   </si>
 </sst>
 </file>
@@ -1178,7 +1181,12 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
+      <c r="A72" s="4">
+        <v>41386</v>
+      </c>
+      <c r="B72" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Datum</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>Applied Dobler's feedback</t>
+  </si>
+  <si>
+    <t>Added own blocked matrix multiplication</t>
   </si>
 </sst>
 </file>
@@ -603,7 +606,7 @@
   <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,7 +1192,12 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
+      <c r="A73" s="4">
+        <v>41387</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Datum</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>Added own blocked matrix multiplication</t>
+  </si>
+  <si>
+    <t>Ported all projects to Visual Studio</t>
   </si>
 </sst>
 </file>
@@ -603,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,7 +1203,12 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
+      <c r="A74" s="4">
+        <v>41390</v>
+      </c>
+      <c r="B74" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
@@ -1211,9 +1219,12 @@
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
     </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Datum</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>Ported all projects to Visual Studio</t>
+  </si>
+  <si>
+    <t>Began writing matrix multiplication chapter</t>
   </si>
 </sst>
 </file>
@@ -608,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="B61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,7 +1214,12 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
+      <c r="A75" s="4">
+        <v>41391</v>
+      </c>
+      <c r="B75" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Datum</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>Began writing matrix multiplication chapter</t>
+  </si>
+  <si>
+    <t>Wrote CPU implementation chapter for matrix multiplication</t>
   </si>
 </sst>
 </file>
@@ -611,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,7 +1225,12 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
+      <c r="A76" s="4">
+        <v>41392</v>
+      </c>
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Datum</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>Wrote CPU implementation chapter for matrix multiplication</t>
+  </si>
+  <si>
+    <t>Added new radix sort with devastating performance</t>
   </si>
 </sst>
 </file>
@@ -615,7 +618,7 @@
   <dimension ref="A1:B78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1233,7 +1236,12 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
+      <c r="A77" s="4">
+        <v>41394</v>
+      </c>
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Datum</t>
   </si>
@@ -250,6 +248,9 @@
   </si>
   <si>
     <t>Added new radix sort with devastating performance</t>
+  </si>
+  <si>
+    <t>Wrote naive GPU matrix chapter</t>
   </si>
 </sst>
 </file>
@@ -1244,36 +1245,15 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
+      <c r="A78" s="4">
+        <v>41395</v>
+      </c>
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
 </file>
--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Datum</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>Wrote naive GPU matrix chapter</t>
+  </si>
+  <si>
+    <t>Split naive GPU matrix mul in 1D, 2D and 2D coalesced version</t>
   </si>
 </sst>
 </file>
@@ -616,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,6 +1255,50 @@
         <v>78</v>
       </c>
     </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>41396</v>
+      </c>
+      <c r="B79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Datum</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>Split naive GPU matrix mul in 1D, 2D and 2D coalesced version</t>
+  </si>
+  <si>
+    <t>Added solution for Intel compiler suite</t>
+  </si>
+  <si>
+    <t>Added huge matrix benchmark</t>
   </si>
 </sst>
 </file>
@@ -1264,39 +1270,49 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>41398</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>41401</v>
+      </c>
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
     </row>
   </sheetData>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Datum</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>Added huge matrix benchmark</t>
+  </si>
+  <si>
+    <t>Added benchmark of fastest matrix alg</t>
   </si>
 </sst>
 </file>
@@ -628,7 +631,7 @@
   <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,7 +1289,12 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
+      <c r="A82" s="4">
+        <v>41407</v>
+      </c>
+      <c r="B82" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>

--- a/documents/protocol.xlsx
+++ b/documents/protocol.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bgruber\Desktop\bakk\documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Datum</t>
   </si>
@@ -263,6 +268,9 @@
   </si>
   <si>
     <t>Added benchmark of fastest matrix alg</t>
+  </si>
+  <si>
+    <t>Added table of content for practical bachelor thesis</t>
   </si>
 </sst>
 </file>
@@ -326,7 +334,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -342,9 +350,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -382,9 +390,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -419,7 +427,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -454,7 +462,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -630,11 +638,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="B61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625"/>
     <col min="2" max="2" width="200.7109375"/>
@@ -1297,7 +1305,12 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
+      <c r="A83" s="4">
+        <v>41450</v>
+      </c>
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
